--- a/RenyiGan-TensorFlow2/TestCases.xlsx
+++ b/RenyiGan-TensorFlow2/TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\CapStone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\Github\Cap_Stone\493_GAN\RenyiGan-TensorFlow2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B5E2CE-D536-4647-87C3-01065F9AFEA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A29D5-4BD4-41BD-A90B-4AD04B3F2BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" xr2:uid="{3916F644-ED36-4E59-A5FF-E64D85216824}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{3916F644-ED36-4E59-A5FF-E64D85216824}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,15 +418,15 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.29296875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,20 +467,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/RenyiGan-TensorFlow2/TestCases.xlsx
+++ b/RenyiGan-TensorFlow2/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\Github\Cap_Stone\493_GAN\RenyiGan-TensorFlow2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A29D5-4BD4-41BD-A90B-4AD04B3F2BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FF8120-BA8C-48AF-86BA-664AC937EC3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{3916F644-ED36-4E59-A5FF-E64D85216824}"/>
   </bookViews>
@@ -36,25 +36,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
-    <t>Version 1</t>
-  </si>
-  <si>
-    <t>Version 2</t>
-  </si>
-  <si>
     <t>Alpha_G</t>
   </si>
   <si>
     <t>Alpha_D</t>
   </si>
   <si>
-    <t>Version 3</t>
-  </si>
-  <si>
     <t>Version 4</t>
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Version 1 - Jesse</t>
+  </si>
+  <si>
+    <t>Version 2 - Will</t>
+  </si>
+  <si>
+    <t>Version 3 - Aidan</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,43 +428,43 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
